--- a/report/tables/Modal Shift/UWI.xlsx
+++ b/report/tables/Modal Shift/UWI.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">UWI</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status</t>
   </si>
   <si>
@@ -35,41 +38,10 @@
     <t xml:space="preserve">Outputs</t>
   </si>
   <si>
+    <t xml:space="preserve">Campaigns to grab the attention of decision-makers and citizens</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-First Half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainings/Webinars/Seminars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve public transport infrastructure &amp; usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning is in progress, topics and speakers are being identified. The webinars will take place in Aug-Oct 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a part of the Transport4All Challenge, the team conducted three technical workshops (details of each unknown) and multiple consultations to train the participating cities in citizen engagement, conducting
-surveys and Focus Group Discussions (FGDs), analysing the survey and FGD data.
-Additional guidance was provided where required, and peer-to-peer linkages were formed for cross-learning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy recommendations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pan-India Central government supported challenge that 140 cities signed up for, to improve public transport services and usage. 
-46 of the 140 cities that registered for the Challenge have moved to the next stage of the Challenge in
-which they will, with support from experts and start-ups, develop solutions to improve public
-transport services. These cities have formed city-level Transport4All task forces that consist of various government and non-government stakeholders to oversee the development and implementation of solutions.
-The Challenge is now on hold due to reduced interest from stakeholders, and UWI has changed the approach to a campaign driven one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposal for Buses4All Mission in Karnataka state, including a budget plan: The team has started preliminary research and data collection. They have also consulted sector experts to inform the approach and research required for these proposals. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">2021-Second Half</t>
@@ -87,8 +59,44 @@
 digital, and social media (blogs, videos)
 - Living Lab experiments that assess the impact of quick-to-implement interventions in
 collaboration with city agencies. The solutions/designs shall be developed in collaboration with local academic institutions and experts
-- A Ride to Remember that will get influential citizensâ€”including decision makers, corporates, celebrities, and social media influencersâ€”to experience city buses and become their champions. The goal is to also get corporates and local businesses to encourage bus use through special programmes/offers to their staff as well as citizens.
+- A Ride to Remember that will get influential citizens—including decision makers, corporates, celebrities, and social media influencers—to experience city buses and become their champions. The goal is to also get corporates and local businesses to encourage bus use through special programmes/offers to their staff as well as citizens.
 - Spectacles that will capture the public attention and imagination through dramatic installations, events and experiences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport4All Challenge launched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-First Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve public transport infrastructure &amp; usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pan-India Central government supported challenge that 140 cities signed up for, to improve public transport services and usage. 
+46 of the 140 cities that registered for the Challenge have moved to the next stage of the Challenge in
+which they will, with support from experts and start-ups, develop solutions to improve public
+transport services. These cities have formed city-level Transport4All task forces that consist of various government and non-government stakeholders to oversee the development and implementation of solutions.
+The Challenge is now on hold due to reduced interest from stakeholders, and UWI has changed the approach to a campaign driven one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposals Buses4all for sustained financial aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposal for Buses4All Mission in Karnataka state, including a budget plan: The team has started preliminary research and data collection. They have also consulted sector experts to inform the approach and research required for these proposals. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposal for Buses4All Mission in Gujarat state, including a budget plan: The team has started preliminary research and data collection. They have also consulted sector experts to inform the approach and research required for these proposals. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templates to guide cities to conduct surveys to identify key gaps and needs and to map existing bus services</t>
   </si>
   <si>
     <t xml:space="preserve">Tools and platforms developed</t>
@@ -98,8 +106,21 @@
 surveys and consultations to identify key gaps and needs in public transport </t>
   </si>
   <si>
-    <t xml:space="preserve">Proposal for Buses4All Mission in Gujarat state, including a budget plan: The team has started preliminary research and data collection. They have also consulted sector experts to inform the approach and research required for these proposals. 
-</t>
+    <t xml:space="preserve">A national webinar series to discuss challenges and solutions for a pan-India Buses4All Mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainings/Webinars/Seminars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning is in progress, topics and speakers are being identified. The webinars will take place in Aug-Oct 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshops to train cities on conducting surveys and Focus Group Discussions (FGDs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a part of the Transport4All Challenge, the team conducted three technical workshops (details of each unknown) and multiple consultations to train the participating cities in citizen engagement, conducting
+surveys and Focus Group Discussions (FGDs), analysing the survey and FGD data.
+Additional guidance was provided where required, and peer-to-peer linkages were formed for cross-learning.</t>
   </si>
 </sst>
 </file>
@@ -195,13 +216,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -499,11 +520,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="30.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="30.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="70.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="30.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="70.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -527,173 +549,204 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/report/tables/Modal Shift/UWI.xlsx
+++ b/report/tables/Modal Shift/UWI.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">2021-Second Half</t>
   </si>
   <si>
-    <t xml:space="preserve">Communication pieces developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve public awareness and usage of public transport</t>
+    <t xml:space="preserve">Communication pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve public awareness &amp; usage of public transport</t>
   </si>
   <si>
     <t xml:space="preserve">UrbanWorks and its partners have identified low-effort but high-impact campaign ideas that can put buses in the limelight to grab the attention of decision-makers and citizens alike. The team is
@@ -99,7 +99,7 @@
     <t xml:space="preserve">Templates to guide cities to conduct surveys to identify key gaps and needs and to map existing bus services</t>
   </si>
   <si>
-    <t xml:space="preserve">Tools and platforms developed</t>
+    <t xml:space="preserve">Tools &amp; platforms</t>
   </si>
   <si>
     <t xml:space="preserve">(no numbers given) The team has developed the resources and templates to guide cities to conduct
